--- a/files/pl.xlsx
+++ b/files/pl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20344"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BDBBEBD-5F3B-4DCF-8233-61E7A13AE4E5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612319B4-C4B0-4E54-B932-CAD360888B13}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>word</t>
   </si>
@@ -37,58 +37,73 @@
     <t>tags</t>
   </si>
   <si>
-    <t>parter</t>
-  </si>
-  <si>
-    <t>Erdgeschoss, Parterre</t>
-  </si>
-  <si>
-    <t>[m]</t>
-  </si>
-  <si>
-    <t>noun</t>
-  </si>
-  <si>
-    <t>uzgodnić</t>
-  </si>
-  <si>
     <t>verb</t>
   </si>
   <si>
-    <t>zależeć</t>
-  </si>
-  <si>
-    <t>to zależy</t>
-  </si>
-  <si>
-    <t>ależ nie</t>
-  </si>
-  <si>
-    <t>aber nein!</t>
-  </si>
-  <si>
-    <t>interjection</t>
-  </si>
-  <si>
-    <t>sam</t>
-  </si>
-  <si>
-    <t>allein, ohne Begleitung</t>
-  </si>
-  <si>
     <t>adverb</t>
   </si>
   <si>
-    <t>rewanż</t>
-  </si>
-  <si>
-    <t>Revanche, Vergeltung</t>
-  </si>
-  <si>
-    <t>gust</t>
-  </si>
-  <si>
-    <t>Geschmack</t>
+    <t>łysy</t>
+  </si>
+  <si>
+    <t>opisywać, opisać</t>
+  </si>
+  <si>
+    <t>prawie</t>
+  </si>
+  <si>
+    <t>fast, beinahe</t>
+  </si>
+  <si>
+    <t>beschreiben, schildern</t>
+  </si>
+  <si>
+    <t>kahl, glatzköpfig</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>szósty</t>
+  </si>
+  <si>
+    <t>siódmy</t>
+  </si>
+  <si>
+    <t>ósmy</t>
+  </si>
+  <si>
+    <t>dziewiąty</t>
+  </si>
+  <si>
+    <t>dziesiąty</t>
+  </si>
+  <si>
+    <t>sechster</t>
+  </si>
+  <si>
+    <t>siebter</t>
+  </si>
+  <si>
+    <t>achter</t>
+  </si>
+  <si>
+    <t>neunter</t>
+  </si>
+  <si>
+    <t>zehnter</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>mianowicie</t>
+  </si>
+  <si>
+    <t>und zwar, nämlich</t>
+  </si>
+  <si>
+    <t>conjunction</t>
   </si>
 </sst>
 </file>
@@ -160,8 +175,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AABE3E8E-CC19-419D-9380-7798E014ADF3}" name="Tabelle2" displayName="Tabelle2" ref="A1:E9" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:E9" xr:uid="{7DC6A0DE-FA0A-45B5-98C3-B989FCBE7284}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AABE3E8E-CC19-419D-9380-7798E014ADF3}" name="Tabelle2" displayName="Tabelle2" ref="A1:E10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:E10" xr:uid="{7DC6A0DE-FA0A-45B5-98C3-B989FCBE7284}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{B158DCAC-82B3-4050-B54F-A8145AFD6F96}" name="word"/>
     <tableColumn id="2" xr3:uid="{BA740DA5-A2AF-4306-97F9-7F11469A58D6}" name="translation"/>
@@ -436,17 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.85546875" customWidth="1"/>
-    <col min="3" max="4" width="9.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,48 +485,57 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -518,44 +543,50 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>